--- a/Design/proto_conv/卡包配置表.xlsx
+++ b/Design/proto_conv/卡包配置表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>vip等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +57,10 @@
   </si>
   <si>
     <t>优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折扣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -428,12 +432,12 @@
     <col min="7" max="7" width="13.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.75" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="10" max="11" width="9" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.75" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -465,6 +469,9 @@
         <v>0</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
